--- a/characterization/trending_words/trending_keywords_year_veracity.xlsx
+++ b/characterization/trending_words/trending_keywords_year_veracity.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>origin
 (11)</t>
@@ -45,7 +45,7 @@
   </si>
   <si>
     <t>trump
-(52)</t>
+(53)</t>
   </si>
   <si>
     <t>death
@@ -77,7 +77,7 @@
   </si>
   <si>
     <t>school
-(18)</t>
+(19)</t>
   </si>
   <si>
     <t>initiation
@@ -172,36 +172,40 @@
 (32)</t>
   </si>
   <si>
+    <t>obama
+(13)</t>
+  </si>
+  <si>
+    <t>car
+(7)</t>
+  </si>
+  <si>
+    <t>mitt
+(5)</t>
+  </si>
+  <si>
+    <t>day
+(8)</t>
+  </si>
+  <si>
+    <t>president
+(11)</t>
+  </si>
+  <si>
+    <t>trump
+(13)</t>
+  </si>
+  <si>
+    <t>donald
+(36)</t>
+  </si>
+  <si>
+    <t>woman
+(30)</t>
+  </si>
+  <si>
     <t>state
 (12)</t>
-  </si>
-  <si>
-    <t>car
-(7)</t>
-  </si>
-  <si>
-    <t>mitt
-(5)</t>
-  </si>
-  <si>
-    <t>day
-(8)</t>
-  </si>
-  <si>
-    <t>president
-(11)</t>
-  </si>
-  <si>
-    <t>trump
-(13)</t>
-  </si>
-  <si>
-    <t>donald
-(36)</t>
-  </si>
-  <si>
-    <t>woman
-(30)</t>
   </si>
   <si>
     <t>coca
@@ -748,16 +752,16 @@
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -783,16 +787,16 @@
         <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -818,16 +822,16 @@
         <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -853,16 +857,16 @@
         <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -888,16 +892,16 @@
         <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -923,16 +927,16 @@
         <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -958,16 +962,16 @@
         <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -990,19 +994,19 @@
         <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
